--- a/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>SFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,157 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E7" s="2">
         <v>43464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42372</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41637</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41273</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40909</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5634800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5207300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4664600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4046400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3593000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2967400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2437900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1794800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1105900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3740000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3459900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6412100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5547300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2541400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2082200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1712600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1264500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>794900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1894800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1747500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1747500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1500900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1051600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>885200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>725300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>530300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>311000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,8 +828,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -845,9 +858,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -875,69 +891,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E15" s="3">
         <v>108000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>94200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>78300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>32200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -947,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5417500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4984400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4438500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3833500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3369800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2768900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2317100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1725100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1131600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E18" s="3">
         <v>222900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>226100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>212900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>223300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>198600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>120800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>69700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E21" s="3">
         <v>334000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>323400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>293800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>292900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>259500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>168500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>106000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E22" s="3">
         <v>27400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>196200</v>
+      </c>
+      <c r="E23" s="3">
         <v>195800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>205500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>198600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>206000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>174100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>84100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E24" s="3">
         <v>37300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>74300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>77000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>66400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E26" s="3">
         <v>158500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>139700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>124300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>129000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>107700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>51300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E27" s="3">
         <v>158500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>139700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>124300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>129000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>107700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>51300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1290,20 +1347,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>18700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1320,9 +1380,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1380,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E33" s="3">
         <v>158500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>158400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>124300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>129000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>107700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>51300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1470,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E35" s="3">
         <v>158500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>158400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>124300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>129000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>107700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>51300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E38" s="2">
         <v>43464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42372</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42001</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41637</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41273</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40909</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1564,38 +1649,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1623,129 +1712,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E43" s="3">
         <v>41000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E44" s="3">
         <v>264400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>229500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>204500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>165400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>142800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>118300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>98400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>63600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
         <v>26900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>387800</v>
+      </c>
+      <c r="E46" s="3">
         <v>333800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>299500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>264000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>345200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>334100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>231600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>203100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>103500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1773,69 +1877,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1769900</v>
+      </c>
+      <c r="E48" s="3">
         <v>766400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>713000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>604700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>494100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>454900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>348800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>303200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>221300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>553500</v>
+      </c>
+      <c r="E49" s="3">
         <v>562900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>564300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>565700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>566700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>562300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>563500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>564900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>389800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1863,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E52" s="3">
         <v>12500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1953,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2723000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1675600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1581600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1439900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1426400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1369100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1172400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1103200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>761600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1998,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2012,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E57" s="3">
         <v>120300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>119000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>157600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>134500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>112900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>111200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>82700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>7400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>36900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E59" s="3">
         <v>182300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>89200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>55200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>416800</v>
+      </c>
+      <c r="E60" s="3">
         <v>310000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>299700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>259200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>230400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>220800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>175600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>136800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>549400</v>
+      </c>
+      <c r="E61" s="3">
         <v>572600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>473500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>372400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>275500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>370200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>421600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>529000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>367400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1174800</v>
+      </c>
+      <c r="E62" s="3">
         <v>203800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>157700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>135500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>92700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>61400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2221,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2251,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2281,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2141000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1086400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>930900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>767000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>603400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>683700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>658600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>716500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>494200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2385,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2415,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2445,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>75500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>245400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>142200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>34500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2505,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2535,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2565,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E76" s="3">
         <v>589200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>650700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>672900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>823000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>685400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>513800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>386800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>267500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2625,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E80" s="2">
         <v>43464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42372</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42001</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41637</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41273</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40909</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E81" s="3">
         <v>158500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>158400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>124300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>129000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>107700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>51300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2705,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E83" s="3">
         <v>110700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>96700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2764,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2794,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2824,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2854,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2884,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>355200</v>
+      </c>
+      <c r="E89" s="3">
         <v>294400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>309600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>254400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>239900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>181200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>160600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>84400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>52400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2929,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-183200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-177100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-198600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-181500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-131000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-127100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-87500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2988,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3018,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-183200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-177100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-198600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-180800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-128300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-126700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-86300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-166700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-260500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3063,8 +3295,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3092,9 +3325,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3122,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3152,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3182,39 +3424,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-134500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-104000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-197200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-106000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-63900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>134900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>217700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3242,37 +3490,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-123600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>52700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42001</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41637</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41273</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40909</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6468800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5634800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5207300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4664600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4046400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3593000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2967400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2437900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1794800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1105900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4089500</v>
+      </c>
+      <c r="E9" s="3">
         <v>3740000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3459900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6412100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5547300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2541400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2082200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1712600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1264500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>794900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2379300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1894800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1747500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1747500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1500900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1051600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>885200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>725300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>530300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>311000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +842,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,9 +875,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,75 +911,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>5500</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3">
-        <v>1100</v>
+        <v>7300</v>
       </c>
       <c r="J14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K14" s="3">
         <v>18700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E15" s="3">
         <v>120500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>108000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>94200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>78300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>32200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6077100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5417500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4984400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4438500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3833500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3369800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2768900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2317100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1725100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1131600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>391700</v>
+      </c>
+      <c r="E18" s="3">
         <v>217400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>222900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>226100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>212900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>223300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>198600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>120800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,173 +1087,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>513800</v>
+      </c>
+      <c r="E21" s="3">
         <v>340200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>334000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>323400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>293800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>292900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>259500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>168500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E22" s="3">
         <v>21200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>376900</v>
+      </c>
+      <c r="E23" s="3">
         <v>196200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>195800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>205500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>198600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>206000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>174100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>84100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E24" s="3">
         <v>46500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>74300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>77000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>66400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E26" s="3">
         <v>149600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>158500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>139700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>124300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>129000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>107700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>51300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E27" s="3">
         <v>149600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>158500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>139700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>124300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>129000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>107700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,9 +1408,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,11 +1423,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>18700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1383,9 +1444,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E33" s="3">
         <v>149600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>158500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>158400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>124300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>129000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>107700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E35" s="3">
         <v>149600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>158500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>158400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>124300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>129000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>107700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42001</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41637</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41273</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40909</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,41 +1736,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E41" s="3">
         <v>85300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>136100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>130500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>77700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1715,141 +1805,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E43" s="3">
         <v>15700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>254200</v>
+      </c>
+      <c r="E44" s="3">
         <v>276000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>264400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>229500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>204500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>165400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>142800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>118300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>98400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>63600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E45" s="3">
         <v>10800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E46" s="3">
         <v>387800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>333800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>299500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>264000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>345200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>334100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>231600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>203100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>103500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1880,75 +1985,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1771900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1769900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>766400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>713000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>604700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>494100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>454900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>348800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>303200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>221300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>553800</v>
+      </c>
+      <c r="E49" s="3">
         <v>553500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>562900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>564300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>565700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>566700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>562300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>563500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>564900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>389800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E52" s="3">
         <v>11700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2806400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2723000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1675600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1581600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1439900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1426400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1369100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1172400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1103200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>761600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2272,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E57" s="3">
         <v>122800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>120300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>119000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>157600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>134500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>112900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>111200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>82700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>36900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>355800</v>
+      </c>
+      <c r="E59" s="3">
         <v>293200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>182300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>171400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>89200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>55200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>496100</v>
+      </c>
+      <c r="E60" s="3">
         <v>416800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>310000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>299700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>259200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>230400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>220800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>175600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>260500</v>
+      </c>
+      <c r="E61" s="3">
         <v>549400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>572600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>473500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>372400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>275500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>370200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>421600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>529000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>367400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1168500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1174800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>203800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>157700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>135500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>92700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>61400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1925100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2141000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1086400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>930900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>767000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>603400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>683700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>658600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>716500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>494200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>75500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>245400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>142200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>34500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>881300</v>
+      </c>
+      <c r="E76" s="3">
         <v>582000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>589200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>650700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>672900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>823000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>685400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>513800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>386800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42001</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41637</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41273</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40909</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E81" s="3">
         <v>149600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>158500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>158400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>124300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>129000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>107700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E83" s="3">
         <v>122800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>110700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>96700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>80400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E89" s="3">
         <v>355200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>294400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>309600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>254400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>239900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>181200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>160600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-183200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-177100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-198600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-181500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-131000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-127100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-87500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-183200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-177100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-198600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-180800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-128300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-126700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-86300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-166700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-260500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,8 +3529,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3328,9 +3562,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,42 +3670,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-287400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-87400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-134500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-104000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-197200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-63900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>134900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>217700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3493,40 +3742,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E102" s="3">
         <v>84500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-123600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>52700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,182 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E7" s="2">
         <v>44199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41637</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41273</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40909</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6099900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6468800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5634800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5207300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4664600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4046400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3593000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2967400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2437900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1794800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1105900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3890700</v>
+      </c>
+      <c r="E9" s="3">
         <v>4089500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3740000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3459900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6412100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5547300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2541400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2082200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1712600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1264500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>794900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2209200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2379300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1894800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1747500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1747500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1500900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1051600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>885200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>725300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>530300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>311000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,8 +855,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,9 +891,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,81 +930,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E15" s="3">
         <v>124100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>120500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>108000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>94200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>78300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>32200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1025,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5765800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6077100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5417500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4984400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4438500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3833500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3369800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2768900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2317100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1725100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1131600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>334100</v>
+      </c>
+      <c r="E18" s="3">
         <v>391700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>217400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>222900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>226100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>212900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>223300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>198600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>120800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,188 +1120,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E21" s="3">
         <v>513800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>340200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>334000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>323400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>293800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>292900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>259500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>168500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E22" s="3">
         <v>10400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>322400</v>
+      </c>
+      <c r="E23" s="3">
         <v>376900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>196200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>195800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>205500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>198600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>206000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>174100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E24" s="3">
         <v>89400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>74300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>77000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>66400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1351,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E26" s="3">
         <v>287500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>149600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>158500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>139700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>124300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>129000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>107700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E27" s="3">
         <v>287500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>149600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>158500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>139700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>124300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>129000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>107700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,9 +1468,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,11 +1486,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>18700</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1447,9 +1507,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1546,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1585,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>4400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E33" s="3">
         <v>287500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>149600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>158500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>158400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>124300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>129000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>107700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1702,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E35" s="3">
         <v>287500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>149600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>158500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>158400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>124300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>129000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>107700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E38" s="2">
         <v>44199</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42001</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41637</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41273</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40909</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1805,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,44 +1822,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>245300</v>
+      </c>
+      <c r="E41" s="3">
         <v>169700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>136100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>130500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1808,153 +1897,168 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E43" s="3">
         <v>23600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E44" s="3">
         <v>254200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>276000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>264400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>229500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>204500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>165400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>142800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>118300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>98400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
         <v>18400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>567700</v>
+      </c>
+      <c r="E46" s="3">
         <v>466000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>387800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>333800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>299500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>264000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>345200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>334100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>231600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>203100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>103500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1988,45 +2092,51 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1788000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1771900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1769900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>766400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>713000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>604700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>494100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>454900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>348800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>303200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>221300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2034,35 +2144,38 @@
         <v>553800</v>
       </c>
       <c r="E49" s="3">
+        <v>553800</v>
+      </c>
+      <c r="F49" s="3">
         <v>553500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>562900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>564300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>565700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>566700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>562300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>563500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>564900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>389800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2209,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,45 +2248,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>47000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,45 +2326,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2923100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2806400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2723000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1675600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1581600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1439900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1426400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1369100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1172400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1103200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>761600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2385,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,224 +2402,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E57" s="3">
         <v>139300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>122800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>120300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>119000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>157600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>134500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>112900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>82700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>366500</v>
+      </c>
+      <c r="E59" s="3">
         <v>355800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>293200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>182300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>171400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>89200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>81000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>513500</v>
+      </c>
+      <c r="E60" s="3">
         <v>496100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>416800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>310000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>299700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>259200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>230400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>220800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>175600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>136800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>259700</v>
+      </c>
+      <c r="E61" s="3">
         <v>260500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>549400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>572600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>473500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>372400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>275500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>370200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>421600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>529000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>367400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1190100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1168500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1174800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>203800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>157700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>135500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>97500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>92700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2672,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2711,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,45 +2750,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1963200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1925100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2141000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1086400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>930900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>767000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>603400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>683700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>658600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>716500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>494200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2809,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2845,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2884,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2923,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,45 +2962,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>258800</v>
+      </c>
+      <c r="E72" s="3">
         <v>203000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>75500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>245400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>142200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3040,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3079,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,45 +3118,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>959900</v>
+      </c>
+      <c r="E76" s="3">
         <v>881300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>582000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>589200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>650700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>672900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>823000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>685400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>513800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>386800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>267500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3196,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E80" s="2">
         <v>44199</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42001</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41637</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41273</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40909</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E81" s="3">
         <v>287500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>149600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>158500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>158400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>124300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>129000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>107700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3299,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E83" s="3">
         <v>126500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>122800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>110700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>96700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3374,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3413,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3452,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3491,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3530,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E89" s="3">
         <v>494000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>355200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>294400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>309600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>254400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>239900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>181200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>52400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3589,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-122000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-183200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-177100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-198600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-181500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-131000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-127100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-87500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3664,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3703,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-122000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-183200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-177100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-198600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-180800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-128300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-126700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-86300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-166700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-260500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,8 +3762,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3565,9 +3798,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3837,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3876,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,45 +3915,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-186900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-287400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-87400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-134500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-104000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-197200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-106000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-63900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>134900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>217700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3745,43 +3993,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E102" s="3">
         <v>84700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>84500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-123600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>52900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>52700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SFM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,194 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
         <v>44563</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42001</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41637</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41273</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40909</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6404200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6099900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6468800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5634800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5207300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4664600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4046400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3593000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2967400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2437900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1794800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1105900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4055700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3890700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4089500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3740000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3459900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6412100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5547300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2541400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2082200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1712600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1264500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>794900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2348600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2209200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2379300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1894800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1747500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1747500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1500900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1051600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>885200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>725300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>530300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>311000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +868,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,9 +907,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,87 +949,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E15" s="3">
         <v>122300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>124100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>120500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>108000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>94200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>78300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>32200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6045900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5765800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6077100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5417500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4984400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4438500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3833500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3369800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2768900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2317100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1725100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1131600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>358400</v>
+      </c>
+      <c r="E18" s="3">
         <v>334100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>391700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>217400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>222900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>226100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>212900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>223300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>198600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>120800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>69700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1121,203 +1153,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E21" s="3">
         <v>454000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>513800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>340200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>334000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>323400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>293800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>292900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>259500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>168500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E22" s="3">
         <v>6100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>349300</v>
+      </c>
+      <c r="E23" s="3">
         <v>322400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>376900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>196200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>195800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>205500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>198600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>206000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>174100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E24" s="3">
         <v>78200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>89400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>74300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>77000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-17700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1354,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E26" s="3">
         <v>244200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>287500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>149600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>158500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>139700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>124300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>129000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E27" s="3">
         <v>244200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>287500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>149600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>158500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>139700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>124300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>129000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>107700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1471,9 +1528,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,11 +1549,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>18700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1510,9 +1570,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1549,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1588,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E33" s="3">
         <v>244200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>287500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>149600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>158500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>158400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>124300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>129000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1705,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E35" s="3">
         <v>244200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>287500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>149600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>158500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>158400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>124300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>129000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
         <v>44563</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44199</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42001</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41637</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41273</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40909</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1806,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1823,47 +1908,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E41" s="3">
         <v>245300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>169700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>136100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1900,165 +1989,180 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E43" s="3">
         <v>33200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>310500</v>
+      </c>
+      <c r="E44" s="3">
         <v>265400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>254200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>276000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>264400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>229500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>204500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>165400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>142800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>118300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>98400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>673800</v>
+      </c>
+      <c r="E46" s="3">
         <v>567700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>466000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>387800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>333800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>299500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>264000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>345200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>334100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>231600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>203100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>103500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2095,48 +2199,54 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1828800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1788000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1771900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1769900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>766400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>713000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>604700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>494100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>454900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>348800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>303200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>221300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2147,35 +2257,38 @@
         <v>553800</v>
       </c>
       <c r="F49" s="3">
+        <v>553800</v>
+      </c>
+      <c r="G49" s="3">
         <v>553500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>562900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>564300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>565700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>566700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>562300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>563500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>564900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>389800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2251,48 +2367,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E52" s="3">
         <v>13500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>47000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2329,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3070400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2923100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2806400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2723000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1675600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1581600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1439900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1426400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1369100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1172400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1103200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>761600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2386,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2403,242 +2532,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E57" s="3">
         <v>145900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>139300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>122800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>120300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>119000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>157600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>134500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>112900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>82700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>348500</v>
+      </c>
+      <c r="E59" s="3">
         <v>366500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>355800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>293200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>182300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>171400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>89200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>81000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>522400</v>
+      </c>
+      <c r="E60" s="3">
         <v>513500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>496100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>416800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>310000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>299700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>259200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>230400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>220800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>175600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>136800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>258900</v>
+      </c>
+      <c r="E61" s="3">
         <v>259700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>260500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>549400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>572600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>473500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>372400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>275500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>370200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>421600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>529000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>367400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1242600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1190100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1168500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1174800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>203800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>157700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>135500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>97500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>92700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2675,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2714,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2753,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2023900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1963200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1925100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2141000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1086400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>930900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>767000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>603400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>683700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>658600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>716500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>494200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2810,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2848,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2887,9 +3051,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2926,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2965,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E72" s="3">
         <v>258800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>203000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>75500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>245400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>142200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3043,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3082,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3121,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1046500</v>
+      </c>
+      <c r="E76" s="3">
         <v>959900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>881300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>582000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>589200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>650700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>672900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>823000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>685400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>513800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>386800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>267500</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3199,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
         <v>44563</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44199</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42001</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41637</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41273</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40909</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E81" s="3">
         <v>244200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>287500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>149600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>158500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>158400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>124300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>129000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3300,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E83" s="3">
         <v>125500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>126500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>122800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>110700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>96700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3377,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3416,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3455,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3494,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3533,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>371300</v>
+      </c>
+      <c r="E89" s="3">
         <v>364800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>494000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>355200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>294400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>309600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>254400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>239900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>181200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>160600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>52400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3590,47 +3809,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-102400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-122000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-183200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-177100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-198600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-181500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-131000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3667,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3706,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-102400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-122000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-183200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-177100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-198600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-180800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-128300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-126700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-86300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-166700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-260500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3763,8 +3995,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3801,9 +4034,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3840,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3879,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3918,48 +4160,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-199100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-186900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-287400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-87400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-134500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-104000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-197200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-63900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>134900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>217700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3996,46 +4244,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E102" s="3">
         <v>75600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>84700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>84500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-123600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>52900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>52700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
